--- a/Finance.xlsx
+++ b/Finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12520" activeTab="2"/>
+    <workbookView windowWidth="29400" windowHeight="12520"/>
   </bookViews>
   <sheets>
     <sheet name="Contribution" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <r>
       <t>Name</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>Principal</t>
   </si>
   <si>
     <t>Month_1</t>
@@ -1357,8 +1360,8 @@
   <sheetPr/>
   <dimension ref="E3:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1580,8 +1583,8 @@
   <sheetPr/>
   <dimension ref="C7:AB10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1664,88 +1667,88 @@
         <f>E9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="2" t="e">
+        <f>$G9+(($E9-(COLUMNS($H9:H9)-1)*$G9)*1%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="2" t="e">
+        <f>$G9+(($E9-(COLUMNS($H9:I9)-1)*$G9)*1%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="2" t="e">
+        <f>$G9+(($E9-(COLUMNS($H9:J9)-1)*$G9)*1%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="2" t="e">
+        <f>$G9+(($E9-(COLUMNS($H9:K9)-1)*$G9)*1%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="2" t="e">
+        <f>$G9+(($E9-(COLUMNS($H9:L9)-1)*$G9)*1%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="2" t="e">
+        <f>$G9+(($E9-(COLUMNS($H9:M9)-1)*$G9)*1%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="2" t="e">
+        <f>$G9+(($E9-(COLUMNS($H9:N9)-1)*$G9)*1%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="2" t="e">
+        <f>$G9+(($E9-(COLUMNS($H9:O9)-1)*$G9)*1%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="2" t="e">
+        <f>$G9+(($E9-(COLUMNS($H9:P9)-1)*$G9)*1%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="2" t="e">
+        <f>$G9+(($E9-(COLUMNS($H9:Q9)-1)*$G9)*1%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="2" t="str">
         <f>IF((COLUMN()-COLUMN($H$9)+1)&lt;=$F9,$G9+($E9*1%)*(1-((COLUMN()-COLUMN($H$9)+1)/$F9)),"")</f>
         <v/>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="S9" s="2" t="str">
         <f>IF((COLUMN()-COLUMN($H$9)+1)&lt;=$F9,$G9+($E9*1%)*(1-((COLUMN()-COLUMN($H$9)+1)/$F9)),"")</f>
         <v/>
       </c>
-      <c r="J9" s="2" t="str">
-        <f>IF((COLUMN()-COLUMN($H$9)+1)&lt;=$F9,$G9+($E9*1%)*(1-((COLUMN()-COLUMN($H$9)+1)/$F9)),"")</f>
+      <c r="T9" s="2" t="str">
+        <f t="shared" ref="T9:AB9" si="0">IF((COLUMN()-8)&lt;=$F9,$G9+MAX(0,($E9*1%)*(1-((COLUMN()-8)/$F9))),"")</f>
         <v/>
       </c>
-      <c r="K9" s="2" t="str">
-        <f>IF((COLUMN()-COLUMN($H$9)+1)&lt;=$F9,$G9+($E9*1%)*(1-((COLUMN()-COLUMN($H$9)+1)/$F9)),"")</f>
-        <v/>
-      </c>
-      <c r="L9" s="2" t="str">
-        <f>IF((COLUMN()-COLUMN($H$9)+1)&lt;=$F9,$G9+($E9*1%)*(1-((COLUMN()-COLUMN($H$9)+1)/$F9)),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="2" t="str">
-        <f>IF((COLUMN()-COLUMN($H$9)+1)&lt;=$F9,$G9+($E9*1%)*(1-((COLUMN()-COLUMN($H$9)+1)/$F9)),"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" ref="N9:S9" si="0">IF((COLUMN()-COLUMN($H$9)+1)&lt;=$F9,$G9+($E9*1%)*(1-((COLUMN()-COLUMN($H$9)+1)/$F9)),"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="2" t="str">
+      <c r="U9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P9" s="2" t="str">
+      <c r="V9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q9" s="2" t="str">
+      <c r="W9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R9" s="2" t="str">
+      <c r="X9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S9" s="2" t="str">
+      <c r="Y9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T9" s="2" t="str">
-        <f t="shared" ref="T9:AB9" si="1">IF((COLUMN()-8)&lt;=$F9,$G9+MAX(0,($E9*1%)*(1-((COLUMN()-8)/$F9))),"")</f>
+      <c r="Z9" s="2" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U9" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="AA9" s="2" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="AB9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1764,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="D6:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:M9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1773,11 +1776,12 @@
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.0078125" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:21">
       <c r="E6" s="1" t="str">
-        <f>"Interest = "&amp;SUM(E7:E8)</f>
+        <f ca="1">"Interest = "&amp;SUM(E7:E8)</f>
         <v>Interest = 4250</v>
       </c>
       <c r="F6" t="s">
@@ -1786,44 +1790,47 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="4:18">
@@ -1831,7 +1838,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <f>($G7/2)*(($F7*1%)+(($F7*1%)/$G7))</f>
+        <f ca="1">($F7/2)*(($E7*1%)+(($E7*1%)/$F7))</f>
         <v>2750</v>
       </c>
       <c r="F7" s="1">
@@ -1841,56 +1848,56 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H9" si="0">F7/G7</f>
+        <f>F7/G7</f>
         <v>5000</v>
       </c>
-      <c r="I7">
-        <f>(H7+F7*1%)</f>
+      <c r="I7" s="2">
+        <f>H7+(F7*1%)</f>
         <v>5500</v>
       </c>
-      <c r="J7">
-        <f t="shared" ref="J7:R7" si="1">$H7+(($F7-(COLUMN()-8)*$H7)*1%)</f>
+      <c r="J7" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F7,$G7+($E7*1%)*(1-((COLUMN()-8)/$F7)),"")</f>
+        <v>5450</v>
+      </c>
+      <c r="K7" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F7,$G7+($E7*1%)*(1-((COLUMN()-8)/$F7)),"")</f>
         <v>5400</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
+      <c r="L7" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F7,$G7+($E7*1%)*(1-((COLUMN()-8)/$F7)),"")</f>
         <v>5350</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
+      <c r="M7" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F7,$G7+($E7*1%)*(1-((COLUMN()-8)/$F7)),"")</f>
         <v>5300</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
+      <c r="N7" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F7,$G7+($E7*1%)*(1-((COLUMN()-8)/$F7)),"")</f>
         <v>5250</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
+      <c r="O7" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F7,$G7+($E7*1%)*(1-((COLUMN()-8)/$F7)),"")</f>
         <v>5200</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
+      <c r="P7" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F7,$G7+($E7*1%)*(1-((COLUMN()-8)/$F7)),"")</f>
         <v>5150</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
+      <c r="Q7" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F7,$G7+($E7*1%)*(1-((COLUMN()-8)/$F7)),"")</f>
         <v>5100</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
+      <c r="R7" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F7,$G7+($E7*1%)*(1-((COLUMN()-8)/$F7)),"")</f>
         <v>5050</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="4:13">
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <f>($G8/2)*(($F8*1%)+(($F8*1%)/$G8))</f>
+        <f ca="1">($F8/2)*(($E8*1%)+(($E8*1%)/$F8))</f>
         <v>1500</v>
       </c>
       <c r="F8" s="1">
@@ -1900,28 +1907,28 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="I8">
-        <f>(H8)+(F8*1%)</f>
+        <f>F8/G8</f>
+        <v>10000</v>
+      </c>
+      <c r="I8" s="2">
+        <f>H8+(F8*1%)</f>
         <v>10500</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8:M8" si="2">IF((COLUMN()-8)&lt;=$G8,$H8+MAX(0,($F8*1%)*(1-((COLUMN()-8)/$G8))),"")</f>
+        <f ca="1">IF((COLUMN()-8)&lt;=$F8,$G8+($E8*1%)*(1-((COLUMN()-8)/$F8)),"")</f>
+        <v>10400</v>
+      </c>
+      <c r="K8" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F8,$G8+($E8*1%)*(1-((COLUMN()-8)/$F8)),"")</f>
         <v>10300</v>
       </c>
-      <c r="K8" s="2">
-        <f t="shared" si="2"/>
+      <c r="L8" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F8,$G8+($E8*1%)*(1-((COLUMN()-8)/$F8)),"")</f>
         <v>10200</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="2"/>
+      <c r="M8" s="2">
+        <f ca="1">IF((COLUMN()-8)&lt;=$F8,$G8+($E8*1%)*(1-((COLUMN()-8)/$F8)),"")</f>
         <v>10100</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="2"/>
-        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="4:13">
